--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H2">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J2">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N2">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P2">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q2">
-        <v>407.5426084137317</v>
+        <v>51.44472575053678</v>
       </c>
       <c r="R2">
-        <v>407.5426084137317</v>
+        <v>463.002531754831</v>
       </c>
       <c r="S2">
-        <v>0.1054097521466996</v>
+        <v>0.007952799374481526</v>
       </c>
       <c r="T2">
-        <v>0.1054097521466996</v>
+        <v>0.007952799374481526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H3">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J3">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N3">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P3">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q3">
-        <v>930.9487593684632</v>
+        <v>25.18642891634522</v>
       </c>
       <c r="R3">
-        <v>930.9487593684632</v>
+        <v>226.677860247107</v>
       </c>
       <c r="S3">
-        <v>0.2407872844713353</v>
+        <v>0.003893550081355886</v>
       </c>
       <c r="T3">
-        <v>0.2407872844713353</v>
+        <v>0.003893550081355886</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H4">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J4">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N4">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P4">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q4">
-        <v>1100.443720539025</v>
+        <v>36.82898713936333</v>
       </c>
       <c r="R4">
-        <v>1100.443720539025</v>
+        <v>331.46088425427</v>
       </c>
       <c r="S4">
-        <v>0.2846266805939748</v>
+        <v>0.005693363928209119</v>
       </c>
       <c r="T4">
-        <v>0.2846266805939748</v>
+        <v>0.005693363928209119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>7.95494716024447</v>
+        <v>0.2151743333333333</v>
       </c>
       <c r="H5">
-        <v>7.95494716024447</v>
+        <v>0.645523</v>
       </c>
       <c r="I5">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="J5">
-        <v>0.7468135253716179</v>
+        <v>0.01945888736810517</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N5">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P5">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q5">
-        <v>448.4479661899589</v>
+        <v>12.414669932988</v>
       </c>
       <c r="R5">
-        <v>448.4479661899589</v>
+        <v>111.732029396892</v>
       </c>
       <c r="S5">
-        <v>0.1159898081596083</v>
+        <v>0.001919173984058636</v>
       </c>
       <c r="T5">
-        <v>0.1159898081596083</v>
+        <v>0.001919173984058636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H6">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J6">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N6">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P6">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q6">
-        <v>26.07610784589493</v>
+        <v>1931.12427534273</v>
       </c>
       <c r="R6">
-        <v>26.07610784589493</v>
+        <v>17380.11847808457</v>
       </c>
       <c r="S6">
-        <v>0.006744512127664392</v>
+        <v>0.2985309709583107</v>
       </c>
       <c r="T6">
-        <v>0.006744512127664392</v>
+        <v>0.2985309709583107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H7">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J7">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N7">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P7">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q7">
-        <v>59.565600619727</v>
+        <v>945.4443303945664</v>
       </c>
       <c r="R7">
-        <v>59.565600619727</v>
+        <v>8508.998973551097</v>
       </c>
       <c r="S7">
-        <v>0.01540647546580105</v>
+        <v>0.1461554895992533</v>
       </c>
       <c r="T7">
-        <v>0.01540647546580105</v>
+        <v>0.1461554895992533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H8">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J8">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N8">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P8">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q8">
-        <v>70.41052528667726</v>
+        <v>1382.480906711173</v>
       </c>
       <c r="R8">
-        <v>70.41052528667726</v>
+        <v>12442.32816040056</v>
       </c>
       <c r="S8">
-        <v>0.01821148480124785</v>
+        <v>0.2137166275011303</v>
       </c>
       <c r="T8">
-        <v>0.01821148480124785</v>
+        <v>0.2137166275011303</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.508987418190017</v>
+        <v>8.077181333333334</v>
       </c>
       <c r="H9">
-        <v>0.508987418190017</v>
+        <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="J9">
-        <v>0.04778393627150163</v>
+        <v>0.730444748601188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.3734688812411</v>
+        <v>57.695868</v>
       </c>
       <c r="N9">
-        <v>56.3734688812411</v>
+        <v>173.087604</v>
       </c>
       <c r="O9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="P9">
-        <v>0.155312945225371</v>
+        <v>0.09862711817759588</v>
       </c>
       <c r="Q9">
-        <v>28.69338638027818</v>
+        <v>466.019988020064</v>
       </c>
       <c r="R9">
-        <v>28.69338638027818</v>
+        <v>4194.179892180576</v>
       </c>
       <c r="S9">
-        <v>0.00742146387678835</v>
+        <v>0.07204166054249368</v>
       </c>
       <c r="T9">
-        <v>0.00742146387678835</v>
+        <v>0.07204166054249368</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H10">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I10">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J10">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.231340724733</v>
+        <v>239.0839323333333</v>
       </c>
       <c r="N10">
-        <v>51.231340724733</v>
+        <v>717.251797</v>
       </c>
       <c r="O10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="P10">
-        <v>0.1411460137846958</v>
+        <v>0.4086975387666237</v>
       </c>
       <c r="Q10">
-        <v>112.0899440260004</v>
+        <v>124.1266396530907</v>
       </c>
       <c r="R10">
-        <v>112.0899440260004</v>
+        <v>1117.139756877816</v>
       </c>
       <c r="S10">
-        <v>0.02899174951033178</v>
+        <v>0.01918863883105244</v>
       </c>
       <c r="T10">
-        <v>0.02899174951033178</v>
+        <v>0.01918863883105244</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H11">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I11">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J11">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>117.027648407391</v>
+        <v>117.0512696666667</v>
       </c>
       <c r="N11">
-        <v>117.027648407391</v>
+        <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="P11">
-        <v>0.3224195549371155</v>
+        <v>0.2000910950200451</v>
       </c>
       <c r="Q11">
-        <v>256.0468333233783</v>
+        <v>60.77020998046133</v>
       </c>
       <c r="R11">
-        <v>256.0468333233783</v>
+        <v>546.931889824152</v>
       </c>
       <c r="S11">
-        <v>0.06622579499997927</v>
+        <v>0.009394418589444637</v>
       </c>
       <c r="T11">
-        <v>0.06622579499997927</v>
+        <v>0.009394418589444639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.18791744350908</v>
+        <v>0.519176</v>
       </c>
       <c r="H12">
-        <v>2.18791744350908</v>
+        <v>1.557528</v>
       </c>
       <c r="I12">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="J12">
-        <v>0.2054025383568807</v>
+        <v>0.04695070806875992</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.334510383499</v>
+        <v>171.15883</v>
       </c>
       <c r="N12">
-        <v>138.334510383499</v>
+        <v>513.47649</v>
       </c>
       <c r="O12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="P12">
-        <v>0.3811214860528179</v>
+        <v>0.2925842480357353</v>
       </c>
       <c r="Q12">
-        <v>302.6644883073454</v>
+        <v>88.86155672407999</v>
       </c>
       <c r="R12">
-        <v>302.6644883073454</v>
+        <v>799.7540105167201</v>
       </c>
       <c r="S12">
-        <v>0.07828332065759527</v>
+        <v>0.01373703761504345</v>
       </c>
       <c r="T12">
-        <v>0.07828332065759527</v>
+        <v>0.01373703761504345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.519176</v>
+      </c>
+      <c r="H13">
+        <v>1.557528</v>
+      </c>
+      <c r="I13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="J13">
+        <v>0.04695070806875992</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>57.695868</v>
+      </c>
+      <c r="N13">
+        <v>173.087604</v>
+      </c>
+      <c r="O13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P13">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q13">
+        <v>29.954309964768</v>
+      </c>
+      <c r="R13">
+        <v>269.588789682912</v>
+      </c>
+      <c r="S13">
+        <v>0.004630613033219389</v>
+      </c>
+      <c r="T13">
+        <v>0.004630613033219389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.73909</v>
+      </c>
+      <c r="I14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J14">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>239.0839323333333</v>
+      </c>
+      <c r="N14">
+        <v>717.251797</v>
+      </c>
+      <c r="O14">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="P14">
+        <v>0.4086975387666237</v>
+      </c>
+      <c r="Q14">
+        <v>537.0693791827479</v>
+      </c>
+      <c r="R14">
+        <v>4833.62441264473</v>
+      </c>
+      <c r="S14">
+        <v>0.08302512960277901</v>
+      </c>
+      <c r="T14">
+        <v>0.08302512960277901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.73909</v>
+      </c>
+      <c r="I15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J15">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>117.0512696666667</v>
+      </c>
+      <c r="N15">
+        <v>351.153809</v>
+      </c>
+      <c r="O15">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="P15">
+        <v>0.2000910950200451</v>
+      </c>
+      <c r="Q15">
+        <v>262.9396802993123</v>
+      </c>
+      <c r="R15">
+        <v>2366.45712269381</v>
+      </c>
+      <c r="S15">
+        <v>0.04064763674999131</v>
+      </c>
+      <c r="T15">
+        <v>0.04064763674999131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="H13">
-        <v>2.18791744350908</v>
-      </c>
-      <c r="I13">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="J13">
-        <v>0.2054025383568807</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="N13">
-        <v>56.3734688812411</v>
-      </c>
-      <c r="O13">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="P13">
-        <v>0.155312945225371</v>
-      </c>
-      <c r="Q13">
-        <v>123.3404959163837</v>
-      </c>
-      <c r="R13">
-        <v>123.3404959163837</v>
-      </c>
-      <c r="S13">
-        <v>0.03190167318897437</v>
-      </c>
-      <c r="T13">
-        <v>0.03190167318897437</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.73909</v>
+      </c>
+      <c r="I16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J16">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>171.15883</v>
+      </c>
+      <c r="N16">
+        <v>513.47649</v>
+      </c>
+      <c r="O16">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="P16">
+        <v>0.2925842480357353</v>
+      </c>
+      <c r="Q16">
+        <v>384.4849198882333</v>
+      </c>
+      <c r="R16">
+        <v>3460.3642789941</v>
+      </c>
+      <c r="S16">
+        <v>0.05943721899135243</v>
+      </c>
+      <c r="T16">
+        <v>0.05943721899135243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.246363333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.73909</v>
+      </c>
+      <c r="I17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="J17">
+        <v>0.2031456559619469</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>57.695868</v>
+      </c>
+      <c r="N17">
+        <v>173.087604</v>
+      </c>
+      <c r="O17">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="P17">
+        <v>0.09862711817759588</v>
+      </c>
+      <c r="Q17">
+        <v>129.60588236004</v>
+      </c>
+      <c r="R17">
+        <v>1166.45294124036</v>
+      </c>
+      <c r="S17">
+        <v>0.02003567061782418</v>
+      </c>
+      <c r="T17">
+        <v>0.02003567061782418</v>
       </c>
     </row>
   </sheetData>
